--- a/data/pca/factorExposure/factorExposure_2014-10-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-10-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.01268483122937282</v>
+        <v>-0.0176234067358869</v>
       </c>
       <c r="C2">
-        <v>-0.1038895311722449</v>
+        <v>0.07506667658675857</v>
       </c>
       <c r="D2">
-        <v>0.01597617593071208</v>
+        <v>0.02514640152752509</v>
       </c>
       <c r="E2">
-        <v>-0.1784109418305612</v>
+        <v>0.06298246070448635</v>
       </c>
       <c r="F2">
-        <v>0.1955557232018486</v>
+        <v>0.1600087705520625</v>
       </c>
       <c r="G2">
-        <v>-0.1021186890456911</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.02893403707055982</v>
+      </c>
+      <c r="H2">
+        <v>-0.0570315144369901</v>
+      </c>
+      <c r="I2">
+        <v>-0.003317462115411857</v>
+      </c>
+      <c r="J2">
+        <v>0.1803709978289955</v>
+      </c>
+      <c r="K2">
+        <v>-0.12098401632487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.03399196609952487</v>
+        <v>-0.02046190330575619</v>
       </c>
       <c r="C4">
-        <v>-0.1656006067313228</v>
+        <v>0.1510120000247714</v>
       </c>
       <c r="D4">
-        <v>-0.02682646254772688</v>
+        <v>0.05875619297327361</v>
       </c>
       <c r="E4">
-        <v>-0.07870004658592726</v>
+        <v>-0.036059750347451</v>
       </c>
       <c r="F4">
-        <v>-0.05459554005286096</v>
+        <v>0.08238969887729071</v>
       </c>
       <c r="G4">
-        <v>-0.02090339602588616</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.01482003001008343</v>
+      </c>
+      <c r="H4">
+        <v>-0.1125591979696369</v>
+      </c>
+      <c r="I4">
+        <v>0.01786420913631852</v>
+      </c>
+      <c r="J4">
+        <v>0.1471197447482481</v>
+      </c>
+      <c r="K4">
+        <v>0.0624447702464459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.03623346635729357</v>
+        <v>-0.04073137970776618</v>
       </c>
       <c r="C6">
-        <v>-0.070558202201772</v>
+        <v>0.08457292149105315</v>
       </c>
       <c r="D6">
-        <v>-0.03601385935739294</v>
+        <v>0.0200236547106169</v>
       </c>
       <c r="E6">
-        <v>-0.06859647816596627</v>
+        <v>0.04106949711095086</v>
       </c>
       <c r="F6">
-        <v>0.01174969766962569</v>
+        <v>0.04370636581647206</v>
       </c>
       <c r="G6">
-        <v>0.01012055346663455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.03467503704394327</v>
+      </c>
+      <c r="H6">
+        <v>-0.03423259031655438</v>
+      </c>
+      <c r="I6">
+        <v>-0.07679052188009974</v>
+      </c>
+      <c r="J6">
+        <v>0.04757932333886657</v>
+      </c>
+      <c r="K6">
+        <v>-0.0489118321220354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.01074336874782793</v>
+        <v>-0.01342557147899272</v>
       </c>
       <c r="C7">
-        <v>-0.05592880304949012</v>
+        <v>0.06912151196066306</v>
       </c>
       <c r="D7">
-        <v>-0.01266274756550003</v>
+        <v>0.01973473790432396</v>
       </c>
       <c r="E7">
-        <v>-0.06398422250372426</v>
+        <v>-0.02095880028800999</v>
       </c>
       <c r="F7">
-        <v>-0.01597408581456786</v>
+        <v>0.0107549121063006</v>
       </c>
       <c r="G7">
-        <v>-0.03060277903753926</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.05039693308897512</v>
+      </c>
+      <c r="H7">
+        <v>-0.1037190939418857</v>
+      </c>
+      <c r="I7">
+        <v>-0.007936402149024161</v>
+      </c>
+      <c r="J7">
+        <v>0.03772036942666668</v>
+      </c>
+      <c r="K7">
+        <v>-0.01457298112896682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.002854442096446289</v>
+        <v>0.0009480660764868937</v>
       </c>
       <c r="C8">
-        <v>-0.07488962959315523</v>
+        <v>0.0671157879626661</v>
       </c>
       <c r="D8">
-        <v>-0.02086795324633487</v>
+        <v>0.0421556098496134</v>
       </c>
       <c r="E8">
-        <v>-0.08017112922797263</v>
+        <v>0.003467110368363161</v>
       </c>
       <c r="F8">
-        <v>0.0184249605876555</v>
+        <v>0.06044683465643166</v>
       </c>
       <c r="G8">
-        <v>-0.06462476376401764</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.02713080934165146</v>
+      </c>
+      <c r="H8">
+        <v>-0.06066477855886309</v>
+      </c>
+      <c r="I8">
+        <v>0.002650745950883892</v>
+      </c>
+      <c r="J8">
+        <v>0.00884617627678936</v>
+      </c>
+      <c r="K8">
+        <v>0.004207738219764882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.0169758494491412</v>
+        <v>-0.01393791082231489</v>
       </c>
       <c r="C9">
-        <v>-0.138321613506017</v>
+        <v>0.1153841058643814</v>
       </c>
       <c r="D9">
-        <v>-0.02862148721309922</v>
+        <v>0.04035541677499994</v>
       </c>
       <c r="E9">
-        <v>-0.04529951433429514</v>
+        <v>-0.006579209840854366</v>
       </c>
       <c r="F9">
-        <v>-0.02783886477712571</v>
+        <v>0.03431751635816199</v>
       </c>
       <c r="G9">
-        <v>0.02047659728232793</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.009556342115525637</v>
+      </c>
+      <c r="H9">
+        <v>-0.09773599690966968</v>
+      </c>
+      <c r="I9">
+        <v>-0.01812851416458535</v>
+      </c>
+      <c r="J9">
+        <v>0.07384462245333549</v>
+      </c>
+      <c r="K9">
+        <v>0.05308785229504207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2736432227935354</v>
+        <v>-0.2504311269842781</v>
       </c>
       <c r="C10">
-        <v>0.1085351087398838</v>
+        <v>-0.1007411154831414</v>
       </c>
       <c r="D10">
-        <v>0.02560839338428705</v>
+        <v>-0.00690780820606168</v>
       </c>
       <c r="E10">
-        <v>0.02980270645267948</v>
+        <v>0.01053497828158581</v>
       </c>
       <c r="F10">
-        <v>-0.02989926463997006</v>
+        <v>0.000179169063022281</v>
       </c>
       <c r="G10">
-        <v>0.02243056775413707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02107262700097197</v>
+      </c>
+      <c r="H10">
+        <v>-0.05264260971003892</v>
+      </c>
+      <c r="I10">
+        <v>0.1725506629063006</v>
+      </c>
+      <c r="J10">
+        <v>-0.08956474429781811</v>
+      </c>
+      <c r="K10">
+        <v>0.05549975311273198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.01163476689181563</v>
+        <v>-0.01577026986795571</v>
       </c>
       <c r="C11">
-        <v>-0.06997071759031873</v>
+        <v>0.08353594704823435</v>
       </c>
       <c r="D11">
-        <v>-0.01924712698574421</v>
+        <v>0.03181469062707991</v>
       </c>
       <c r="E11">
-        <v>-0.0238355323813127</v>
+        <v>-0.01088486371123736</v>
       </c>
       <c r="F11">
-        <v>-0.05731454426613898</v>
+        <v>-0.005636656302855166</v>
       </c>
       <c r="G11">
-        <v>0.03720211781250703</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02017521154284913</v>
+      </c>
+      <c r="H11">
+        <v>-0.03688893416634707</v>
+      </c>
+      <c r="I11">
+        <v>-0.01386775809725776</v>
+      </c>
+      <c r="J11">
+        <v>-0.02176709740714552</v>
+      </c>
+      <c r="K11">
+        <v>0.04970679439387326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.007305202605978338</v>
+        <v>-0.0158142861755529</v>
       </c>
       <c r="C12">
-        <v>-0.06244979735192834</v>
+        <v>0.06233525761839322</v>
       </c>
       <c r="D12">
-        <v>-0.02185448935361864</v>
+        <v>0.01965699370766449</v>
       </c>
       <c r="E12">
-        <v>-0.01626918571548793</v>
+        <v>0.01549095588684229</v>
       </c>
       <c r="F12">
-        <v>-0.02863746598908763</v>
+        <v>-0.008069109770638605</v>
       </c>
       <c r="G12">
-        <v>0.06403154307327524</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.03104228992849517</v>
+      </c>
+      <c r="H12">
+        <v>-0.0351851265381811</v>
+      </c>
+      <c r="I12">
+        <v>-0.01055959229470875</v>
+      </c>
+      <c r="J12">
+        <v>-0.007646964803513168</v>
+      </c>
+      <c r="K12">
+        <v>0.04736432102589368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.01936574143871661</v>
+        <v>-0.0045233171604484</v>
       </c>
       <c r="C13">
-        <v>-0.1041237407288612</v>
+        <v>0.110487822165655</v>
       </c>
       <c r="D13">
-        <v>-0.04308381658787049</v>
+        <v>0.03799021793814576</v>
       </c>
       <c r="E13">
-        <v>-0.13190518477312</v>
+        <v>0.1100529699950969</v>
       </c>
       <c r="F13">
-        <v>-0.0361402416179783</v>
+        <v>0.1162915836555243</v>
       </c>
       <c r="G13">
-        <v>0.1133975641512948</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1083658278269528</v>
+      </c>
+      <c r="H13">
+        <v>-0.1292869009485003</v>
+      </c>
+      <c r="I13">
+        <v>0.193743939712258</v>
+      </c>
+      <c r="J13">
+        <v>-0.1847983957910346</v>
+      </c>
+      <c r="K13">
+        <v>-0.07375944016094289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.01380141421595381</v>
+        <v>-0.01804935549233696</v>
       </c>
       <c r="C14">
-        <v>-0.05866274193794246</v>
+        <v>0.07159422619712238</v>
       </c>
       <c r="D14">
-        <v>-0.01370083185400929</v>
+        <v>0.04146058308415514</v>
       </c>
       <c r="E14">
-        <v>-0.04753151322948227</v>
+        <v>0.0399395697128842</v>
       </c>
       <c r="F14">
-        <v>-0.002731615737626662</v>
+        <v>0.0124519101417774</v>
       </c>
       <c r="G14">
-        <v>0.04574276966874592</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.06992279158983318</v>
+      </c>
+      <c r="H14">
+        <v>-0.211075218611057</v>
+      </c>
+      <c r="I14">
+        <v>-0.03640963055530778</v>
+      </c>
+      <c r="J14">
+        <v>-0.1289084109032667</v>
+      </c>
+      <c r="K14">
+        <v>-0.1416875771107543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.005400457384605896</v>
+        <v>-0.0009461302254477232</v>
       </c>
       <c r="C15">
-        <v>-0.0855163559753991</v>
+        <v>0.07768030919777152</v>
       </c>
       <c r="D15">
-        <v>-0.01998900522282063</v>
+        <v>0.0307805583343804</v>
       </c>
       <c r="E15">
-        <v>-0.1041300469945394</v>
+        <v>-0.006432889080546456</v>
       </c>
       <c r="F15">
-        <v>-0.01684571690000874</v>
+        <v>0.03289416761050169</v>
       </c>
       <c r="G15">
-        <v>0.002823329835786537</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.04619053919491006</v>
+      </c>
+      <c r="H15">
+        <v>-0.08636181309897185</v>
+      </c>
+      <c r="I15">
+        <v>-0.02907490064140728</v>
+      </c>
+      <c r="J15">
+        <v>-0.05640202871135614</v>
+      </c>
+      <c r="K15">
+        <v>-0.005790705318922854</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.01169658055532211</v>
+        <v>-0.0155365638322189</v>
       </c>
       <c r="C16">
-        <v>-0.06584377777288007</v>
+        <v>0.06679129766529059</v>
       </c>
       <c r="D16">
-        <v>-0.009603882246097475</v>
+        <v>0.02316779962121795</v>
       </c>
       <c r="E16">
-        <v>-0.01971963371049235</v>
+        <v>-0.004992990411413874</v>
       </c>
       <c r="F16">
-        <v>-0.03126599317936245</v>
+        <v>-0.002749002881832235</v>
       </c>
       <c r="G16">
-        <v>0.03424016541938565</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.01861152324665773</v>
+      </c>
+      <c r="H16">
+        <v>-0.02967641603144754</v>
+      </c>
+      <c r="I16">
+        <v>-0.01396265369781576</v>
+      </c>
+      <c r="J16">
+        <v>-0.007215674674332486</v>
+      </c>
+      <c r="K16">
+        <v>0.03408620219193736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01198105072035375</v>
+        <v>-0.01309682970631441</v>
       </c>
       <c r="C20">
-        <v>-0.0834774942251973</v>
+        <v>0.08392123258186712</v>
       </c>
       <c r="D20">
-        <v>-0.002555982006862083</v>
+        <v>0.01836323562919567</v>
       </c>
       <c r="E20">
-        <v>-0.05041961546448311</v>
+        <v>-0.02840665685451836</v>
       </c>
       <c r="F20">
-        <v>-0.0730167679077391</v>
+        <v>0.003097038078219533</v>
       </c>
       <c r="G20">
-        <v>0.04306436789874522</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04805784336805448</v>
+      </c>
+      <c r="H20">
+        <v>-0.0743171090319707</v>
+      </c>
+      <c r="I20">
+        <v>-0.02030767496633088</v>
+      </c>
+      <c r="J20">
+        <v>0.01465418144406224</v>
+      </c>
+      <c r="K20">
+        <v>0.0076639355425563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.005458449982296339</v>
+        <v>-0.01370397690697372</v>
       </c>
       <c r="C21">
-        <v>-0.09772277431711421</v>
+        <v>0.08095560881999847</v>
       </c>
       <c r="D21">
-        <v>0.02760673073133315</v>
+        <v>0.0231977935249522</v>
       </c>
       <c r="E21">
-        <v>-0.03818807655240936</v>
+        <v>0.08151767429503377</v>
       </c>
       <c r="F21">
-        <v>0.03398780768372291</v>
+        <v>0.01825285688408873</v>
       </c>
       <c r="G21">
-        <v>0.03868856089430255</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.004758070032013936</v>
+      </c>
+      <c r="H21">
+        <v>-0.1517040763892581</v>
+      </c>
+      <c r="I21">
+        <v>0.0373444594578306</v>
+      </c>
+      <c r="J21">
+        <v>-0.04333088315260515</v>
+      </c>
+      <c r="K21">
+        <v>0.00832759470623551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.05267832120536928</v>
+        <v>-0.006357492782941523</v>
       </c>
       <c r="C22">
-        <v>-0.1536747422037587</v>
+        <v>0.1613557539319987</v>
       </c>
       <c r="D22">
-        <v>0.1032899828890344</v>
+        <v>0.005651237280788995</v>
       </c>
       <c r="E22">
-        <v>-0.2580419246108032</v>
+        <v>-0.08812801401971163</v>
       </c>
       <c r="F22">
-        <v>0.02750057193771907</v>
+        <v>0.511683777804821</v>
       </c>
       <c r="G22">
-        <v>-0.3071045821231412</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.07462045141407975</v>
+      </c>
+      <c r="H22">
+        <v>0.3078456123628711</v>
+      </c>
+      <c r="I22">
+        <v>0.03784670024788876</v>
+      </c>
+      <c r="J22">
+        <v>-0.2201191679992013</v>
+      </c>
+      <c r="K22">
+        <v>0.04475019706772152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.05234872419086491</v>
+        <v>-0.01132629971745096</v>
       </c>
       <c r="C23">
-        <v>-0.154263507916968</v>
+        <v>0.165099171647259</v>
       </c>
       <c r="D23">
-        <v>0.1031923278991697</v>
+        <v>0.004345482279440367</v>
       </c>
       <c r="E23">
-        <v>-0.2546981895151611</v>
+        <v>-0.08372668801801358</v>
       </c>
       <c r="F23">
-        <v>0.02716688654691828</v>
+        <v>0.4952274783716328</v>
       </c>
       <c r="G23">
-        <v>-0.3048272571893189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.07089291934175333</v>
+      </c>
+      <c r="H23">
+        <v>0.2859367577955679</v>
+      </c>
+      <c r="I23">
+        <v>0.03096045308126864</v>
+      </c>
+      <c r="J23">
+        <v>-0.2079872690378647</v>
+      </c>
+      <c r="K23">
+        <v>0.05213648625163259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.005031208244196362</v>
+        <v>-0.01589746469890432</v>
       </c>
       <c r="C24">
-        <v>-0.07808090607123019</v>
+        <v>0.07558884330947023</v>
       </c>
       <c r="D24">
-        <v>-0.03413719963014335</v>
+        <v>0.0367481546050501</v>
       </c>
       <c r="E24">
-        <v>-0.02262578773620524</v>
+        <v>-0.007953136730104546</v>
       </c>
       <c r="F24">
-        <v>-0.04291179768781536</v>
+        <v>-0.006036774449723716</v>
       </c>
       <c r="G24">
-        <v>0.0494982016871089</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02811203195357549</v>
+      </c>
+      <c r="H24">
+        <v>-0.04780263165709303</v>
+      </c>
+      <c r="I24">
+        <v>-0.01394862885832953</v>
+      </c>
+      <c r="J24">
+        <v>-0.009454317958074701</v>
+      </c>
+      <c r="K24">
+        <v>0.05034466318849443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.00770816752035751</v>
+        <v>-0.02023014512818944</v>
       </c>
       <c r="C25">
-        <v>-0.06880396963166238</v>
+        <v>0.07230865420819282</v>
       </c>
       <c r="D25">
-        <v>-0.009113816206800731</v>
+        <v>0.02489585840971237</v>
       </c>
       <c r="E25">
-        <v>-0.02203133143217498</v>
+        <v>-0.009549046531242188</v>
       </c>
       <c r="F25">
-        <v>-0.050873547380822</v>
+        <v>-0.002029740471448918</v>
       </c>
       <c r="G25">
-        <v>0.04361179080045862</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.0293989936939331</v>
+      </c>
+      <c r="H25">
+        <v>-0.03842989741000427</v>
+      </c>
+      <c r="I25">
+        <v>-0.0019384083405222</v>
+      </c>
+      <c r="J25">
+        <v>-0.02456799413511137</v>
+      </c>
+      <c r="K25">
+        <v>0.03805313850197951</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.01289279788563314</v>
+        <v>-0.02417190392078571</v>
       </c>
       <c r="C26">
-        <v>-0.06238222240878588</v>
+        <v>0.06393353189737452</v>
       </c>
       <c r="D26">
-        <v>-0.03416021974855234</v>
+        <v>0.05521721730271251</v>
       </c>
       <c r="E26">
-        <v>-0.02350370481523628</v>
+        <v>-0.001313629495733177</v>
       </c>
       <c r="F26">
-        <v>0.003038632122281664</v>
+        <v>-0.01530088439525614</v>
       </c>
       <c r="G26">
-        <v>0.03141099119321054</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.007941733567819855</v>
+      </c>
+      <c r="H26">
+        <v>-0.1082142964114053</v>
+      </c>
+      <c r="I26">
+        <v>-0.04713710434078522</v>
+      </c>
+      <c r="J26">
+        <v>0.1018814740642793</v>
+      </c>
+      <c r="K26">
+        <v>0.0756470577262425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.353721791525252</v>
+        <v>-0.3200814118572368</v>
       </c>
       <c r="C28">
-        <v>0.1160985707099943</v>
+        <v>-0.1126236454113519</v>
       </c>
       <c r="D28">
-        <v>0.02541762785803908</v>
+        <v>-0.02990722157395227</v>
       </c>
       <c r="E28">
-        <v>0.09961143279758998</v>
+        <v>0.006095864049555056</v>
       </c>
       <c r="F28">
-        <v>0.03482156604828272</v>
+        <v>0.01781639246001705</v>
       </c>
       <c r="G28">
-        <v>0.01469346528374297</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.1137403715996952</v>
+      </c>
+      <c r="H28">
+        <v>-0.05931409028968675</v>
+      </c>
+      <c r="I28">
+        <v>0.2074538202431854</v>
+      </c>
+      <c r="J28">
+        <v>0.01970278776709703</v>
+      </c>
+      <c r="K28">
+        <v>-0.03406027278317936</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.01660752131950077</v>
+        <v>-0.01340034787814766</v>
       </c>
       <c r="C29">
-        <v>-0.05739858743056926</v>
+        <v>0.07476954493412577</v>
       </c>
       <c r="D29">
-        <v>-0.02503270587762713</v>
+        <v>0.0456109090452907</v>
       </c>
       <c r="E29">
-        <v>-0.07672424743912695</v>
+        <v>0.04649042232591614</v>
       </c>
       <c r="F29">
-        <v>-0.02960744422031589</v>
+        <v>0.0281851003621477</v>
       </c>
       <c r="G29">
-        <v>0.06935751278936497</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1164625894782344</v>
+      </c>
+      <c r="H29">
+        <v>-0.2976349770049436</v>
+      </c>
+      <c r="I29">
+        <v>-0.03897819109036012</v>
+      </c>
+      <c r="J29">
+        <v>-0.1952222657793546</v>
+      </c>
+      <c r="K29">
+        <v>-0.2596829589719185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.03651972238709095</v>
+        <v>-0.02740230203258985</v>
       </c>
       <c r="C30">
-        <v>-0.1841216102501143</v>
+        <v>0.1518755220661759</v>
       </c>
       <c r="D30">
-        <v>-0.04835709222790974</v>
+        <v>0.0546841692509574</v>
       </c>
       <c r="E30">
-        <v>-0.05803442286163413</v>
+        <v>-0.01546531122723309</v>
       </c>
       <c r="F30">
-        <v>-0.009092806664062198</v>
+        <v>0.06370626357553506</v>
       </c>
       <c r="G30">
-        <v>-0.03605130546429716</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01025279799864188</v>
+      </c>
+      <c r="H30">
+        <v>-0.02635977089264903</v>
+      </c>
+      <c r="I30">
+        <v>-0.04268273050670851</v>
+      </c>
+      <c r="J30">
+        <v>0.09369001139680114</v>
+      </c>
+      <c r="K30">
+        <v>0.03714156440057758</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.003418251451827674</v>
+        <v>-0.01158776478586495</v>
       </c>
       <c r="C31">
-        <v>-0.09063273341871299</v>
+        <v>0.09372644372739233</v>
       </c>
       <c r="D31">
-        <v>-0.03567410273585062</v>
+        <v>0.03876972677700027</v>
       </c>
       <c r="E31">
-        <v>0.05127708279910762</v>
+        <v>0.002539625094156179</v>
       </c>
       <c r="F31">
-        <v>0.01542899070374745</v>
+        <v>-0.02095588166145727</v>
       </c>
       <c r="G31">
-        <v>0.002644251867285101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.05619740153277307</v>
+      </c>
+      <c r="H31">
+        <v>-0.02972476917326612</v>
+      </c>
+      <c r="I31">
+        <v>-0.006328406016923309</v>
+      </c>
+      <c r="J31">
+        <v>-0.03082817342580344</v>
+      </c>
+      <c r="K31">
+        <v>0.04119864006763094</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.03306930595258722</v>
+        <v>-0.02342236753120736</v>
       </c>
       <c r="C32">
-        <v>-0.08776950713808662</v>
+        <v>0.06468680484673049</v>
       </c>
       <c r="D32">
-        <v>0.005551320245173686</v>
+        <v>0.01943117165871468</v>
       </c>
       <c r="E32">
-        <v>-0.1624885634569109</v>
+        <v>0.0676594195396672</v>
       </c>
       <c r="F32">
-        <v>0.04029342052181007</v>
+        <v>0.1062587915306476</v>
       </c>
       <c r="G32">
-        <v>0.02548356033627047</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.04486582259016543</v>
+      </c>
+      <c r="H32">
+        <v>-0.1794894628365121</v>
+      </c>
+      <c r="I32">
+        <v>0.2389183970762949</v>
+      </c>
+      <c r="J32">
+        <v>-0.003276962171413149</v>
+      </c>
+      <c r="K32">
+        <v>-0.1714752967189678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.01318824041672851</v>
+        <v>-0.01629406371487683</v>
       </c>
       <c r="C33">
-        <v>-0.09125808750550572</v>
+        <v>0.1077680474641853</v>
       </c>
       <c r="D33">
-        <v>-0.04097565121110967</v>
+        <v>0.03840369843860768</v>
       </c>
       <c r="E33">
-        <v>-0.03738685383119229</v>
+        <v>-0.006796791458331996</v>
       </c>
       <c r="F33">
-        <v>-0.01270892726028301</v>
+        <v>0.02165063943646015</v>
       </c>
       <c r="G33">
-        <v>0.02934965805038411</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.02860211845183607</v>
+      </c>
+      <c r="H33">
+        <v>-0.06224293343429264</v>
+      </c>
+      <c r="I33">
+        <v>0.01377596462331351</v>
+      </c>
+      <c r="J33">
+        <v>-0.001994018262495539</v>
+      </c>
+      <c r="K33">
+        <v>0.02860709672092086</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.002090916388379418</v>
+        <v>-0.01570753360899827</v>
       </c>
       <c r="C34">
-        <v>-0.05584352542386395</v>
+        <v>0.05404504415569986</v>
       </c>
       <c r="D34">
-        <v>-0.01768792204310349</v>
+        <v>0.01937988338193061</v>
       </c>
       <c r="E34">
-        <v>-0.02442288567564755</v>
+        <v>0.00130848604913989</v>
       </c>
       <c r="F34">
-        <v>-0.01692138763437355</v>
+        <v>-0.004937693395951878</v>
       </c>
       <c r="G34">
-        <v>0.03920029614839737</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02365984421730577</v>
+      </c>
+      <c r="H34">
+        <v>-0.01179612460081601</v>
+      </c>
+      <c r="I34">
+        <v>-0.004871989748165243</v>
+      </c>
+      <c r="J34">
+        <v>-0.0092544871233335</v>
+      </c>
+      <c r="K34">
+        <v>0.04435672614592907</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.003495809616989956</v>
+        <v>-0.008175006292939898</v>
       </c>
       <c r="C35">
-        <v>-0.01328511358925045</v>
+        <v>0.0380931547725001</v>
       </c>
       <c r="D35">
-        <v>-0.001192847257139811</v>
+        <v>0.01670986002072281</v>
       </c>
       <c r="E35">
-        <v>-0.0208300477831328</v>
+        <v>0.009449176295018489</v>
       </c>
       <c r="F35">
-        <v>-0.01152574001101052</v>
+        <v>0.01107398517249533</v>
       </c>
       <c r="G35">
-        <v>0.01703336491492507</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.04301866636465981</v>
+      </c>
+      <c r="H35">
+        <v>-0.1483557198617856</v>
+      </c>
+      <c r="I35">
+        <v>0.001917521309905924</v>
+      </c>
+      <c r="J35">
+        <v>-0.1569306972170548</v>
+      </c>
+      <c r="K35">
+        <v>-0.1246119048360085</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.01004778409117463</v>
+        <v>-0.01512894210184668</v>
       </c>
       <c r="C36">
-        <v>-0.0526730805974096</v>
+        <v>0.04892964016497894</v>
       </c>
       <c r="D36">
-        <v>-0.04020853988041916</v>
+        <v>0.04419100767839047</v>
       </c>
       <c r="E36">
-        <v>-0.02267982194312083</v>
+        <v>-0.001092520692699152</v>
       </c>
       <c r="F36">
-        <v>-0.004794032273388264</v>
+        <v>0.004089375425834435</v>
       </c>
       <c r="G36">
-        <v>0.01779167786415903</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.003166697433554988</v>
+      </c>
+      <c r="H36">
+        <v>-0.07307157374009131</v>
+      </c>
+      <c r="I36">
+        <v>-0.01875458141144708</v>
+      </c>
+      <c r="J36">
+        <v>0.03859915391122737</v>
+      </c>
+      <c r="K36">
+        <v>0.05706862251615722</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.02352348338396142</v>
+        <v>-0.01262186135048757</v>
       </c>
       <c r="C38">
-        <v>-0.05345898872018784</v>
+        <v>0.06235279869019587</v>
       </c>
       <c r="D38">
-        <v>-0.02791645327426406</v>
+        <v>0.03519321523916746</v>
       </c>
       <c r="E38">
-        <v>-0.02767224709147688</v>
+        <v>-0.03208402446381844</v>
       </c>
       <c r="F38">
-        <v>-0.02399347327432094</v>
+        <v>0.01557949251332161</v>
       </c>
       <c r="G38">
-        <v>-0.001659376795352509</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.00246395896117189</v>
+      </c>
+      <c r="H38">
+        <v>-0.08642125822166948</v>
+      </c>
+      <c r="I38">
+        <v>0.05383978515218996</v>
+      </c>
+      <c r="J38">
+        <v>-0.02529868453371317</v>
+      </c>
+      <c r="K38">
+        <v>0.07384443865279232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.00250069589903041</v>
+        <v>-0.01585372501156992</v>
       </c>
       <c r="C39">
-        <v>-0.1401620362141275</v>
+        <v>0.1317010120162087</v>
       </c>
       <c r="D39">
-        <v>-0.02840994625062477</v>
+        <v>0.04938294807081258</v>
       </c>
       <c r="E39">
-        <v>-0.06461635405646585</v>
+        <v>0.001485099043028324</v>
       </c>
       <c r="F39">
-        <v>-0.04920779438963745</v>
+        <v>0.01125817263806305</v>
       </c>
       <c r="G39">
-        <v>0.04817564793031711</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04808124177610886</v>
+      </c>
+      <c r="H39">
+        <v>-0.05041301585561589</v>
+      </c>
+      <c r="I39">
+        <v>-0.06797815476147175</v>
+      </c>
+      <c r="J39">
+        <v>0.01693339672129783</v>
+      </c>
+      <c r="K39">
+        <v>0.05418944690257526</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.01046151214465351</v>
+        <v>-0.01479892743564788</v>
       </c>
       <c r="C40">
-        <v>-0.03935035925580275</v>
+        <v>0.06231736294874415</v>
       </c>
       <c r="D40">
-        <v>-0.02319657511580166</v>
+        <v>0.03211418322203591</v>
       </c>
       <c r="E40">
-        <v>-0.1439603199695018</v>
+        <v>0.02738480557109514</v>
       </c>
       <c r="F40">
-        <v>-0.02001222625861025</v>
+        <v>0.06650430446219069</v>
       </c>
       <c r="G40">
-        <v>0.006662808216832733</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.1192966732120336</v>
+      </c>
+      <c r="H40">
+        <v>-0.05144293098529524</v>
+      </c>
+      <c r="I40">
+        <v>0.03202403195252439</v>
+      </c>
+      <c r="J40">
+        <v>-0.2476992738599239</v>
+      </c>
+      <c r="K40">
+        <v>0.1089174088412354</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.007931796555541257</v>
+        <v>-0.02096394459464054</v>
       </c>
       <c r="C41">
-        <v>-0.02113110140995634</v>
+        <v>0.04845563799694856</v>
       </c>
       <c r="D41">
-        <v>0.000913877395485944</v>
+        <v>0.01391921768458622</v>
       </c>
       <c r="E41">
-        <v>0.0276446088400913</v>
+        <v>-0.00525270996456169</v>
       </c>
       <c r="F41">
-        <v>0.01140087853237615</v>
+        <v>-0.02316970686285725</v>
       </c>
       <c r="G41">
-        <v>-0.01449156860118905</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.003248415033282908</v>
+      </c>
+      <c r="H41">
+        <v>-0.03047913785204918</v>
+      </c>
+      <c r="I41">
+        <v>0.03312017548093331</v>
+      </c>
+      <c r="J41">
+        <v>-0.05240077165401701</v>
+      </c>
+      <c r="K41">
+        <v>0.01101049698085367</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.002989691654602505</v>
+        <v>-0.01613545436397761</v>
       </c>
       <c r="C43">
-        <v>-0.01938708864688164</v>
+        <v>0.0441256967266973</v>
       </c>
       <c r="D43">
-        <v>-0.009625257049244832</v>
+        <v>0.02787581717646717</v>
       </c>
       <c r="E43">
-        <v>0.0007204528540921175</v>
+        <v>-0.017983394527009</v>
       </c>
       <c r="F43">
-        <v>-0.02236840574245125</v>
+        <v>-0.008605872580286788</v>
       </c>
       <c r="G43">
-        <v>-0.004438251993422791</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.004548256738453894</v>
+      </c>
+      <c r="H43">
+        <v>-0.04603159228876656</v>
+      </c>
+      <c r="I43">
+        <v>0.006187755160852776</v>
+      </c>
+      <c r="J43">
+        <v>-0.04256859989486524</v>
+      </c>
+      <c r="K43">
+        <v>0.00571047899770923</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.02414374642391028</v>
+        <v>-0.01099181914264775</v>
       </c>
       <c r="C44">
-        <v>-0.08926236653557093</v>
+        <v>0.09345311220834876</v>
       </c>
       <c r="D44">
-        <v>-0.006934184081272123</v>
+        <v>0.04904900848866337</v>
       </c>
       <c r="E44">
-        <v>-0.09482912738184814</v>
+        <v>-0.01889959265445321</v>
       </c>
       <c r="F44">
-        <v>-0.02686101265349291</v>
+        <v>0.07742938388420087</v>
       </c>
       <c r="G44">
-        <v>-0.02393085064256292</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03928356600717695</v>
+      </c>
+      <c r="H44">
+        <v>-0.05101155619921614</v>
+      </c>
+      <c r="I44">
+        <v>-0.05748910445272394</v>
+      </c>
+      <c r="J44">
+        <v>0.06485914849992062</v>
+      </c>
+      <c r="K44">
+        <v>-0.01975099146861624</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.001457153744675539</v>
+        <v>-0.002566673688828807</v>
       </c>
       <c r="C46">
-        <v>-0.05923804012398734</v>
+        <v>0.06150079483633972</v>
       </c>
       <c r="D46">
-        <v>-0.02385186040802309</v>
+        <v>0.02411953751910988</v>
       </c>
       <c r="E46">
-        <v>-0.05079619414874775</v>
+        <v>0.005005777928765439</v>
       </c>
       <c r="F46">
-        <v>-0.02538299844733418</v>
+        <v>-0.002395416604603069</v>
       </c>
       <c r="G46">
-        <v>0.03332941425576797</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.03389300005818448</v>
+      </c>
+      <c r="H46">
+        <v>-0.1093462206079187</v>
+      </c>
+      <c r="I46">
+        <v>-0.006212462354289856</v>
+      </c>
+      <c r="J46">
+        <v>-0.08481886554673175</v>
+      </c>
+      <c r="K46">
+        <v>-0.04736136624516779</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.0001393104716285629</v>
+        <v>-0.01977850393168309</v>
       </c>
       <c r="C47">
-        <v>-0.1079826943015199</v>
+        <v>0.09327952860147355</v>
       </c>
       <c r="D47">
-        <v>-0.02788752549859818</v>
+        <v>0.04017992979745307</v>
       </c>
       <c r="E47">
-        <v>0.06353719830387435</v>
+        <v>0.008831044041091769</v>
       </c>
       <c r="F47">
-        <v>0.03223342204363391</v>
+        <v>-0.03702417874585469</v>
       </c>
       <c r="G47">
-        <v>0.03459725792169518</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.02565620088539812</v>
+      </c>
+      <c r="H47">
+        <v>-0.06911076975913846</v>
+      </c>
+      <c r="I47">
+        <v>0.0316732188987898</v>
+      </c>
+      <c r="J47">
+        <v>-0.02690005458694517</v>
+      </c>
+      <c r="K47">
+        <v>0.03905305268603481</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.01503747493254686</v>
+        <v>-0.02145927853883334</v>
       </c>
       <c r="C48">
-        <v>-0.05612553130685502</v>
+        <v>0.05713756946142613</v>
       </c>
       <c r="D48">
-        <v>-0.05518204618947529</v>
+        <v>0.05323776646466451</v>
       </c>
       <c r="E48">
-        <v>-0.0107020659045157</v>
+        <v>-0.005048153515189844</v>
       </c>
       <c r="F48">
-        <v>-0.01037441514537783</v>
+        <v>0.0001305974512454909</v>
       </c>
       <c r="G48">
-        <v>0.01772245186693419</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.007566200451110174</v>
+      </c>
+      <c r="H48">
+        <v>-0.1011558869362216</v>
+      </c>
+      <c r="I48">
+        <v>-0.0318753413895104</v>
+      </c>
+      <c r="J48">
+        <v>0.08598007372164418</v>
+      </c>
+      <c r="K48">
+        <v>0.07509770361961814</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.005166181104851522</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.02165136487621504</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.002929158135747829</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.009202257910237988</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>-0.03287777226022397</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.03677025906718344</v>
+      </c>
+      <c r="H49">
+        <v>0.02258511444843164</v>
+      </c>
+      <c r="I49">
+        <v>-0.04410742968808912</v>
+      </c>
+      <c r="J49">
+        <v>0.02644528077808466</v>
+      </c>
+      <c r="K49">
+        <v>0.02317090897602773</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.003605652266160242</v>
+        <v>-0.01236420748082017</v>
       </c>
       <c r="C50">
-        <v>-0.08854278774612794</v>
+        <v>0.08652650228361533</v>
       </c>
       <c r="D50">
-        <v>-0.02094926217940636</v>
+        <v>0.02459622537816179</v>
       </c>
       <c r="E50">
-        <v>0.02083296298593299</v>
+        <v>-0.003118749411319319</v>
       </c>
       <c r="F50">
-        <v>0.007103710821440725</v>
+        <v>-0.006835526017923389</v>
       </c>
       <c r="G50">
-        <v>-0.02037920900662696</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.03661642318436737</v>
+      </c>
+      <c r="H50">
+        <v>-0.05951035698148271</v>
+      </c>
+      <c r="I50">
+        <v>0.04350909051665797</v>
+      </c>
+      <c r="J50">
+        <v>-0.02250278040432685</v>
+      </c>
+      <c r="K50">
+        <v>0.02205743872790061</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.003458681643079997</v>
+        <v>0.005698351120951625</v>
       </c>
       <c r="C51">
-        <v>-0.07322119086366596</v>
+        <v>0.03992209801619882</v>
       </c>
       <c r="D51">
-        <v>0.01244507791915686</v>
+        <v>0.01861839777269837</v>
       </c>
       <c r="E51">
-        <v>-0.08840476744452905</v>
+        <v>0.010114508264378</v>
       </c>
       <c r="F51">
-        <v>-0.007485934771717047</v>
+        <v>0.04070946503079965</v>
       </c>
       <c r="G51">
-        <v>-0.0346456447016265</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.01823690579988417</v>
+      </c>
+      <c r="H51">
+        <v>-0.09909116411858772</v>
+      </c>
+      <c r="I51">
+        <v>-0.02391739332685166</v>
+      </c>
+      <c r="J51">
+        <v>0.1134207080601638</v>
+      </c>
+      <c r="K51">
+        <v>0.00462311581720364</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.04438244380601668</v>
+        <v>-0.05594098398204966</v>
       </c>
       <c r="C53">
-        <v>-0.1398579828222231</v>
+        <v>0.1355791882135992</v>
       </c>
       <c r="D53">
-        <v>-0.05146264267299835</v>
+        <v>0.04853045329039997</v>
       </c>
       <c r="E53">
-        <v>0.1231706220547424</v>
+        <v>0.004284889417873467</v>
       </c>
       <c r="F53">
-        <v>-0.02292760777930401</v>
+        <v>-0.08193521246519547</v>
       </c>
       <c r="G53">
-        <v>0.01950611778469004</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.064207414179731</v>
+      </c>
+      <c r="H53">
+        <v>0.02944787850751509</v>
+      </c>
+      <c r="I53">
+        <v>0.04497977981464955</v>
+      </c>
+      <c r="J53">
+        <v>-0.009535344685642927</v>
+      </c>
+      <c r="K53">
+        <v>0.0827864318616738</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.01448967711071032</v>
+        <v>-0.01762666128200405</v>
       </c>
       <c r="C54">
-        <v>-0.06511772577513543</v>
+        <v>0.07460225061152008</v>
       </c>
       <c r="D54">
-        <v>-0.001876831494999492</v>
+        <v>0.006259075687720089</v>
       </c>
       <c r="E54">
-        <v>0.01214471020946101</v>
+        <v>-0.0006015865284331683</v>
       </c>
       <c r="F54">
-        <v>-0.02741533397017402</v>
+        <v>-0.01636241135412244</v>
       </c>
       <c r="G54">
-        <v>0.01053189643559321</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.01380778384831984</v>
+      </c>
+      <c r="H54">
+        <v>-0.06233141146405714</v>
+      </c>
+      <c r="I54">
+        <v>-0.01868515316639526</v>
+      </c>
+      <c r="J54">
+        <v>-0.02256502353152554</v>
+      </c>
+      <c r="K54">
+        <v>-0.01028097921521468</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.02980993397704499</v>
+        <v>-0.03201550052787863</v>
       </c>
       <c r="C55">
-        <v>-0.09909289213519973</v>
+        <v>0.09226539702125555</v>
       </c>
       <c r="D55">
-        <v>-0.05668764328457266</v>
+        <v>0.04928289839254081</v>
       </c>
       <c r="E55">
-        <v>0.06483695868341055</v>
+        <v>-0.0007322090300474046</v>
       </c>
       <c r="F55">
-        <v>0.003511775667861398</v>
+        <v>-0.06261349717708634</v>
       </c>
       <c r="G55">
-        <v>0.03302228422909785</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03042174110060399</v>
+      </c>
+      <c r="H55">
+        <v>0.02048690732062127</v>
+      </c>
+      <c r="I55">
+        <v>-0.01094204871571309</v>
+      </c>
+      <c r="J55">
+        <v>0.0003290154312896554</v>
+      </c>
+      <c r="K55">
+        <v>0.05568681705200245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.02981115378394684</v>
+        <v>-0.04176669125630492</v>
       </c>
       <c r="C56">
-        <v>-0.1845064993215314</v>
+        <v>0.1645453846704231</v>
       </c>
       <c r="D56">
-        <v>-0.05578547636121327</v>
+        <v>0.07384772433716365</v>
       </c>
       <c r="E56">
-        <v>0.1588553473425886</v>
+        <v>0.02449707748714989</v>
       </c>
       <c r="F56">
-        <v>0.02583175825309718</v>
+        <v>-0.1227174805599338</v>
       </c>
       <c r="G56">
-        <v>0.01297162632966917</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1297983791734407</v>
+      </c>
+      <c r="H56">
+        <v>0.04719336343118798</v>
+      </c>
+      <c r="I56">
+        <v>0.03086988046665196</v>
+      </c>
+      <c r="J56">
+        <v>0.01956458464074606</v>
+      </c>
+      <c r="K56">
+        <v>0.05439844065580117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.03867010402599795</v>
+        <v>-0.02038144189695107</v>
       </c>
       <c r="C58">
-        <v>-0.2578016126789338</v>
+        <v>0.1829686662892475</v>
       </c>
       <c r="D58">
-        <v>0.101419470063652</v>
+        <v>0.02397705643712954</v>
       </c>
       <c r="E58">
-        <v>-0.2163005788669212</v>
+        <v>-0.02804692644158735</v>
       </c>
       <c r="F58">
-        <v>-0.0091496865347604</v>
+        <v>0.3262930432990084</v>
       </c>
       <c r="G58">
-        <v>-0.3824102602281578</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1363640495815779</v>
+      </c>
+      <c r="H58">
+        <v>-0.03406371604263846</v>
+      </c>
+      <c r="I58">
+        <v>-0.00400989606978158</v>
+      </c>
+      <c r="J58">
+        <v>0.4011602321238129</v>
+      </c>
+      <c r="K58">
+        <v>-0.2303223537863357</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2852755434262955</v>
+        <v>-0.2869636691977988</v>
       </c>
       <c r="C59">
-        <v>0.01625332878030606</v>
+        <v>-0.04318610470748187</v>
       </c>
       <c r="D59">
-        <v>0.03722130865911354</v>
+        <v>-0.005196105878482528</v>
       </c>
       <c r="E59">
-        <v>-0.03163300730129885</v>
+        <v>0.02080150982669797</v>
       </c>
       <c r="F59">
-        <v>0.04711501510626889</v>
+        <v>0.0400028183679678</v>
       </c>
       <c r="G59">
-        <v>0.04140624497366184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.001425799702318718</v>
+      </c>
+      <c r="H59">
+        <v>0.02484534195774089</v>
+      </c>
+      <c r="I59">
+        <v>0.03525072216982988</v>
+      </c>
+      <c r="J59">
+        <v>-0.02086581267421513</v>
+      </c>
+      <c r="K59">
+        <v>0.02138556609876516</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1192869652794978</v>
+        <v>-0.1501216647039798</v>
       </c>
       <c r="C60">
-        <v>-0.1400158582918309</v>
+        <v>0.15190754639615</v>
       </c>
       <c r="D60">
-        <v>-0.05096754695467504</v>
+        <v>0.03515210178770926</v>
       </c>
       <c r="E60">
-        <v>-0.0755634405251064</v>
+        <v>0.04562778801914459</v>
       </c>
       <c r="F60">
-        <v>-0.1049710797207873</v>
+        <v>-0.0709936610241539</v>
       </c>
       <c r="G60">
-        <v>0.2932060452806792</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.285490390118899</v>
+      </c>
+      <c r="H60">
+        <v>0.227330021079523</v>
+      </c>
+      <c r="I60">
+        <v>-0.02712014267066593</v>
+      </c>
+      <c r="J60">
+        <v>0.002621013409764583</v>
+      </c>
+      <c r="K60">
+        <v>-0.1036042472110911</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.00404527419922066</v>
+        <v>-0.01837058116876626</v>
       </c>
       <c r="C61">
-        <v>-0.09537401246359772</v>
+        <v>0.1013719803178001</v>
       </c>
       <c r="D61">
-        <v>-0.0443828756805901</v>
+        <v>0.04909521337692456</v>
       </c>
       <c r="E61">
-        <v>-0.02155154772549582</v>
+        <v>0.002709861245993269</v>
       </c>
       <c r="F61">
-        <v>-0.04316382597505878</v>
+        <v>-0.02532551944652099</v>
       </c>
       <c r="G61">
-        <v>0.07547219710193113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.04155315726990752</v>
+      </c>
+      <c r="H61">
+        <v>-0.05873119184798822</v>
+      </c>
+      <c r="I61">
+        <v>-0.03296580906586867</v>
+      </c>
+      <c r="J61">
+        <v>-0.01975012585324782</v>
+      </c>
+      <c r="K61">
+        <v>0.04735319952684969</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.002210049849162253</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.008472071705314164</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.0002506353057972182</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.001242325242396731</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.0160334598740221</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.02686573480178604</v>
+      </c>
+      <c r="H62">
+        <v>-0.004266602521677438</v>
+      </c>
+      <c r="I62">
+        <v>-0.006600174170724565</v>
+      </c>
+      <c r="J62">
+        <v>-0.008279401896908747</v>
+      </c>
+      <c r="K62">
+        <v>-0.003333719121445623</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.001573020540644094</v>
+        <v>-0.0244073549949595</v>
       </c>
       <c r="C63">
-        <v>-0.06969164158025057</v>
+        <v>0.07111339066087308</v>
       </c>
       <c r="D63">
-        <v>-0.02044603370814909</v>
+        <v>0.05295536890926028</v>
       </c>
       <c r="E63">
-        <v>-0.0004168275925664313</v>
+        <v>0.00256068845162358</v>
       </c>
       <c r="F63">
-        <v>-0.02873649812380374</v>
+        <v>-0.01578860062455814</v>
       </c>
       <c r="G63">
-        <v>0.02623304310962311</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01114641465920538</v>
+      </c>
+      <c r="H63">
+        <v>-0.065240960953465</v>
+      </c>
+      <c r="I63">
+        <v>-0.01089557109192962</v>
+      </c>
+      <c r="J63">
+        <v>-0.0122299173139419</v>
+      </c>
+      <c r="K63">
+        <v>0.0639485854057732</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.001117544818397732</v>
+        <v>-0.01378376293928042</v>
       </c>
       <c r="C64">
-        <v>-0.09510491095444304</v>
+        <v>0.09307358153075329</v>
       </c>
       <c r="D64">
-        <v>-0.06348655399094459</v>
+        <v>0.0299766020185618</v>
       </c>
       <c r="E64">
-        <v>-0.03101428669110683</v>
+        <v>-0.03653304033900831</v>
       </c>
       <c r="F64">
-        <v>-0.02228171330144532</v>
+        <v>0.03652599583808704</v>
       </c>
       <c r="G64">
-        <v>0.01148867100683084</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.03944856298518123</v>
+      </c>
+      <c r="H64">
+        <v>-0.04596673454402234</v>
+      </c>
+      <c r="I64">
+        <v>-0.02428715618436066</v>
+      </c>
+      <c r="J64">
+        <v>-0.01584649774565037</v>
+      </c>
+      <c r="K64">
+        <v>0.1199841854089991</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.02985389677561584</v>
+        <v>-0.03220751427605277</v>
       </c>
       <c r="C65">
-        <v>-0.06549894523986925</v>
+        <v>0.08751116403937464</v>
       </c>
       <c r="D65">
-        <v>-0.01676190519301398</v>
+        <v>0.009227574348832868</v>
       </c>
       <c r="E65">
-        <v>-0.0781577864024449</v>
+        <v>-0.02728799741523918</v>
       </c>
       <c r="F65">
-        <v>-0.03480440888493153</v>
+        <v>0.03088207747201039</v>
       </c>
       <c r="G65">
-        <v>0.02957996138381484</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.113153192083229</v>
+      </c>
+      <c r="H65">
+        <v>-0.001081240206928291</v>
+      </c>
+      <c r="I65">
+        <v>-0.08260248857319687</v>
+      </c>
+      <c r="J65">
+        <v>0.07272400952241014</v>
+      </c>
+      <c r="K65">
+        <v>-0.03065114911018771</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.003213534019663585</v>
+        <v>-0.01048277372951642</v>
       </c>
       <c r="C66">
-        <v>-0.1653844821243348</v>
+        <v>0.1628913899080174</v>
       </c>
       <c r="D66">
-        <v>-0.006243998660801465</v>
+        <v>0.03863276298207834</v>
       </c>
       <c r="E66">
-        <v>-0.1123463200773769</v>
+        <v>0.007351165328515689</v>
       </c>
       <c r="F66">
-        <v>-0.03523106641745393</v>
+        <v>0.02135293275734513</v>
       </c>
       <c r="G66">
-        <v>0.05613465113840179</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.0428723765321201</v>
+      </c>
+      <c r="H66">
+        <v>-0.06272299793042586</v>
+      </c>
+      <c r="I66">
+        <v>-0.05163548656314303</v>
+      </c>
+      <c r="J66">
+        <v>0.01200355471452248</v>
+      </c>
+      <c r="K66">
+        <v>0.0395670182800144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.0238890047206675</v>
+        <v>-0.02134226273578514</v>
       </c>
       <c r="C67">
-        <v>-0.03970498877955071</v>
+        <v>0.05403968261714961</v>
       </c>
       <c r="D67">
-        <v>-0.0507023875711391</v>
+        <v>0.03963329527593309</v>
       </c>
       <c r="E67">
-        <v>0.01298494766651274</v>
+        <v>-0.02830536693198159</v>
       </c>
       <c r="F67">
-        <v>-0.0255924165388655</v>
+        <v>-0.0191996955021341</v>
       </c>
       <c r="G67">
-        <v>0.01843410883586501</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02166682380801129</v>
+      </c>
+      <c r="H67">
+        <v>-0.06104017831491408</v>
+      </c>
+      <c r="I67">
+        <v>0.04788928457302352</v>
+      </c>
+      <c r="J67">
+        <v>-0.03858427359596982</v>
+      </c>
+      <c r="K67">
+        <v>0.05665571273734993</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2839018335228882</v>
+        <v>-0.2945889414702662</v>
       </c>
       <c r="C68">
-        <v>0.03755340636132924</v>
+        <v>-0.06022736134482848</v>
       </c>
       <c r="D68">
-        <v>0.01667195914408265</v>
+        <v>-0.01973139971168488</v>
       </c>
       <c r="E68">
-        <v>0.01361658532032903</v>
+        <v>0.009112142589227865</v>
       </c>
       <c r="F68">
-        <v>0.01557723035230864</v>
+        <v>0.01649018017136016</v>
       </c>
       <c r="G68">
-        <v>-0.02731546719561585</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.03676360844194512</v>
+      </c>
+      <c r="H68">
+        <v>-0.0274724097682879</v>
+      </c>
+      <c r="I68">
+        <v>0.0383396492187676</v>
+      </c>
+      <c r="J68">
+        <v>0.01202333921122578</v>
+      </c>
+      <c r="K68">
+        <v>0.04525769876579842</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.001210956555988088</v>
+        <v>-0.006451055527881401</v>
       </c>
       <c r="C69">
-        <v>-0.09780870352055689</v>
+        <v>0.07192331189486509</v>
       </c>
       <c r="D69">
-        <v>-0.0532511602156683</v>
+        <v>0.0283144070680373</v>
       </c>
       <c r="E69">
-        <v>0.04733240286829669</v>
+        <v>0.0003063525641234338</v>
       </c>
       <c r="F69">
-        <v>-0.001990135487389312</v>
+        <v>-0.02206935145582749</v>
       </c>
       <c r="G69">
-        <v>0.0009528643031460092</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.006252841430445596</v>
+      </c>
+      <c r="H69">
+        <v>-0.05549582422334939</v>
+      </c>
+      <c r="I69">
+        <v>0.02432913004674062</v>
+      </c>
+      <c r="J69">
+        <v>0.008319274403243189</v>
+      </c>
+      <c r="K69">
+        <v>0.04628191729927142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2845446435686038</v>
+        <v>-0.2767419786495444</v>
       </c>
       <c r="C71">
-        <v>0.05691431880960799</v>
+        <v>-0.07420264689390621</v>
       </c>
       <c r="D71">
-        <v>0.02224951526393885</v>
+        <v>-0.01782112284845917</v>
       </c>
       <c r="E71">
-        <v>-0.006765099156924271</v>
+        <v>-0.0254541422503067</v>
       </c>
       <c r="F71">
-        <v>-0.01324565277399728</v>
+        <v>0.0468094453863812</v>
       </c>
       <c r="G71">
-        <v>-0.02886991333770081</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02201443296154512</v>
+      </c>
+      <c r="H71">
+        <v>-0.04874559324078517</v>
+      </c>
+      <c r="I71">
+        <v>0.1221101527871026</v>
+      </c>
+      <c r="J71">
+        <v>0.05079713567157343</v>
+      </c>
+      <c r="K71">
+        <v>0.04181400487072216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.03395759497806451</v>
+        <v>-0.05297533478693221</v>
       </c>
       <c r="C72">
-        <v>-0.1538108362457207</v>
+        <v>0.1398536659781123</v>
       </c>
       <c r="D72">
-        <v>-0.04480904466107515</v>
+        <v>0.03559473749072539</v>
       </c>
       <c r="E72">
-        <v>-0.09858957424967031</v>
+        <v>-0.004081412996887025</v>
       </c>
       <c r="F72">
-        <v>-0.09603010077592786</v>
+        <v>-0.02333147367715816</v>
       </c>
       <c r="G72">
-        <v>0.05843224145069864</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.05213720550109492</v>
+      </c>
+      <c r="H72">
+        <v>-0.01693996736190874</v>
+      </c>
+      <c r="I72">
+        <v>-0.1252853166621526</v>
+      </c>
+      <c r="J72">
+        <v>0.07203761284063945</v>
+      </c>
+      <c r="K72">
+        <v>0.02965894604562969</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.07264465744213311</v>
+        <v>-0.1486808698524454</v>
       </c>
       <c r="C73">
-        <v>-0.147519015978069</v>
+        <v>0.1992141527285388</v>
       </c>
       <c r="D73">
-        <v>-0.09457343617520039</v>
+        <v>0.06792050332554372</v>
       </c>
       <c r="E73">
-        <v>-0.07193484941051245</v>
+        <v>0.03373638304248763</v>
       </c>
       <c r="F73">
-        <v>-0.1611190692173144</v>
+        <v>-0.1733682871960068</v>
       </c>
       <c r="G73">
-        <v>0.3996281874929015</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.4286655854962047</v>
+      </c>
+      <c r="H73">
+        <v>0.2904568796531334</v>
+      </c>
+      <c r="I73">
+        <v>0.06938777368046063</v>
+      </c>
+      <c r="J73">
+        <v>0.09143535753498147</v>
+      </c>
+      <c r="K73">
+        <v>-0.07893089433738422</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.01209935516873027</v>
+        <v>-0.03656294954777847</v>
       </c>
       <c r="C74">
-        <v>-0.1109148205769882</v>
+        <v>0.1101025425266656</v>
       </c>
       <c r="D74">
-        <v>-0.06345688135333104</v>
+        <v>0.04172898116657287</v>
       </c>
       <c r="E74">
-        <v>0.09650993563454803</v>
+        <v>-0.0009080953411249805</v>
       </c>
       <c r="F74">
-        <v>0.01651196454181213</v>
+        <v>-0.06346486232082919</v>
       </c>
       <c r="G74">
-        <v>0.01943846616195146</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05159788437000965</v>
+      </c>
+      <c r="H74">
+        <v>0.009171686091202122</v>
+      </c>
+      <c r="I74">
+        <v>-0.002077919952315919</v>
+      </c>
+      <c r="J74">
+        <v>0.0231315949413223</v>
+      </c>
+      <c r="K74">
+        <v>0.07313544878614461</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.05100830138561904</v>
+        <v>-0.05866912644699741</v>
       </c>
       <c r="C75">
-        <v>-0.1748988478783693</v>
+        <v>0.1780376936162216</v>
       </c>
       <c r="D75">
-        <v>-0.08833919868025847</v>
+        <v>0.08015964850275921</v>
       </c>
       <c r="E75">
-        <v>0.238829484037025</v>
+        <v>-0.05386340602221062</v>
       </c>
       <c r="F75">
-        <v>0.02953752039984465</v>
+        <v>-0.1599897460453382</v>
       </c>
       <c r="G75">
-        <v>-0.0544877627119047</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1942642181428748</v>
+      </c>
+      <c r="H75">
+        <v>0.04957744498379007</v>
+      </c>
+      <c r="I75">
+        <v>0.1263722539918392</v>
+      </c>
+      <c r="J75">
+        <v>-0.05272394209481946</v>
+      </c>
+      <c r="K75">
+        <v>0.08822278411350457</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.03072234013868747</v>
+        <v>-0.04032391212025604</v>
       </c>
       <c r="C76">
-        <v>-0.1194108307867453</v>
+        <v>0.127741953823672</v>
       </c>
       <c r="D76">
-        <v>-0.05731977760831578</v>
+        <v>0.06749732648584787</v>
       </c>
       <c r="E76">
-        <v>0.1029561958765453</v>
+        <v>-0.00570758495606022</v>
       </c>
       <c r="F76">
-        <v>0.007391199773548011</v>
+        <v>-0.09543687954208534</v>
       </c>
       <c r="G76">
-        <v>0.05025746255132665</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05732088390411206</v>
+      </c>
+      <c r="H76">
+        <v>0.01995916247176239</v>
+      </c>
+      <c r="I76">
+        <v>0.003808629731965399</v>
+      </c>
+      <c r="J76">
+        <v>-0.03326886213607473</v>
+      </c>
+      <c r="K76">
+        <v>0.1363603926972423</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.07464885318911751</v>
+        <v>-0.04431908616282386</v>
       </c>
       <c r="C77">
-        <v>-0.2406129876890922</v>
+        <v>0.3429174956488362</v>
       </c>
       <c r="D77">
-        <v>0.8786892529463942</v>
+        <v>-0.9237906009640799</v>
       </c>
       <c r="E77">
-        <v>0.2542916290026504</v>
+        <v>-0.04308438034549759</v>
       </c>
       <c r="F77">
-        <v>-0.1673336163155891</v>
+        <v>-0.08800262820518036</v>
       </c>
       <c r="G77">
-        <v>0.101168835573926</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.01894805113118028</v>
+      </c>
+      <c r="H77">
+        <v>-0.05430971943404848</v>
+      </c>
+      <c r="I77">
+        <v>0.00382812019041369</v>
+      </c>
+      <c r="J77">
+        <v>-0.003551017880678456</v>
+      </c>
+      <c r="K77">
+        <v>0.004238506953280431</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.03378581854942134</v>
+        <v>-0.03309547583933432</v>
       </c>
       <c r="C78">
-        <v>-0.1469160245382062</v>
+        <v>0.1152266803209549</v>
       </c>
       <c r="D78">
-        <v>-0.06080449043215705</v>
+        <v>0.08643737447717392</v>
       </c>
       <c r="E78">
-        <v>-0.05247788566085271</v>
+        <v>0.04161411565167274</v>
       </c>
       <c r="F78">
-        <v>0.1614867417423123</v>
+        <v>-0.0001311711291923946</v>
       </c>
       <c r="G78">
-        <v>-0.03081020156622625</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.09840182520322015</v>
+      </c>
+      <c r="H78">
+        <v>-0.04977956400038813</v>
+      </c>
+      <c r="I78">
+        <v>-0.113991804128899</v>
+      </c>
+      <c r="J78">
+        <v>0.4167656317547517</v>
+      </c>
+      <c r="K78">
+        <v>-0.08059131633690964</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02966445116190721</v>
+        <v>-0.05372910423177563</v>
       </c>
       <c r="C79">
-        <v>-0.2117898402112719</v>
+        <v>0.1592996067216034</v>
       </c>
       <c r="D79">
-        <v>-0.1040641554697761</v>
+        <v>0.06410113689685269</v>
       </c>
       <c r="E79">
-        <v>0.2197013167909078</v>
+        <v>0.01471276029501309</v>
       </c>
       <c r="F79">
-        <v>0.1262519539554023</v>
+        <v>-0.1137453758306606</v>
       </c>
       <c r="G79">
-        <v>-0.04714702782177366</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.2288752494584223</v>
+      </c>
+      <c r="H79">
+        <v>0.01028723677954764</v>
+      </c>
+      <c r="I79">
+        <v>0.07899189270008038</v>
+      </c>
+      <c r="J79">
+        <v>0.05344263039769628</v>
+      </c>
+      <c r="K79">
+        <v>0.0641270472843065</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.01027392332218256</v>
+        <v>-0.01812749610532683</v>
       </c>
       <c r="C80">
-        <v>-0.05308048571391082</v>
+        <v>0.05496213392793685</v>
       </c>
       <c r="D80">
-        <v>-0.04746398192303183</v>
+        <v>0.03940950369686261</v>
       </c>
       <c r="E80">
-        <v>0.01358951747734933</v>
+        <v>0.04572628793616525</v>
       </c>
       <c r="F80">
-        <v>0.01386083419435984</v>
+        <v>0.02678818504534623</v>
       </c>
       <c r="G80">
-        <v>0.01916443036834708</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04789085583447016</v>
+      </c>
+      <c r="H80">
+        <v>0.03234359764684239</v>
+      </c>
+      <c r="I80">
+        <v>0.05726109533223434</v>
+      </c>
+      <c r="J80">
+        <v>-0.07874175167957721</v>
+      </c>
+      <c r="K80">
+        <v>0.05831929495961378</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.006721288950552088</v>
+        <v>-0.01416860038565873</v>
       </c>
       <c r="C81">
-        <v>-0.1087070442147013</v>
+        <v>0.1084270091752367</v>
       </c>
       <c r="D81">
-        <v>-0.0730059877565525</v>
+        <v>0.04950385956077826</v>
       </c>
       <c r="E81">
-        <v>0.1600337865673432</v>
+        <v>0.004759846146632739</v>
       </c>
       <c r="F81">
-        <v>0.03102688868602083</v>
+        <v>-0.07371420979425762</v>
       </c>
       <c r="G81">
-        <v>0.01516186893197975</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1166923775297647</v>
+      </c>
+      <c r="H81">
+        <v>-0.04131118626198766</v>
+      </c>
+      <c r="I81">
+        <v>0.05700529290517804</v>
+      </c>
+      <c r="J81">
+        <v>-0.01753919555693897</v>
+      </c>
+      <c r="K81">
+        <v>0.1063767967876275</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.03146853074810736</v>
+        <v>-0.0444777562582245</v>
       </c>
       <c r="C82">
-        <v>-0.1171898879671931</v>
+        <v>0.1153735764885058</v>
       </c>
       <c r="D82">
-        <v>-0.0779301127875523</v>
+        <v>0.06425073912696473</v>
       </c>
       <c r="E82">
-        <v>0.1139508058051172</v>
+        <v>0.003833763981378573</v>
       </c>
       <c r="F82">
-        <v>-0.008432646174494544</v>
+        <v>-0.08900442770207234</v>
       </c>
       <c r="G82">
-        <v>0.04666720060191375</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.07469724886079183</v>
+      </c>
+      <c r="H82">
+        <v>-0.001624534195666114</v>
+      </c>
+      <c r="I82">
+        <v>0.02295001681531679</v>
+      </c>
+      <c r="J82">
+        <v>-0.0009079052995257079</v>
+      </c>
+      <c r="K82">
+        <v>0.1136429824516974</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.001784388657207262</v>
+        <v>0.001511654553044218</v>
       </c>
       <c r="C83">
-        <v>-0.0457447047495816</v>
+        <v>0.005750267062241835</v>
       </c>
       <c r="D83">
-        <v>0.1822340547400172</v>
+        <v>-0.05851716457669517</v>
       </c>
       <c r="E83">
-        <v>-0.1382973588783087</v>
+        <v>0.9573889437844461</v>
       </c>
       <c r="F83">
-        <v>0.850395863758455</v>
+        <v>0.08126106178886207</v>
       </c>
       <c r="G83">
-        <v>0.3221974631311732</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.0755335834713365</v>
+      </c>
+      <c r="H83">
+        <v>0.07797581941126529</v>
+      </c>
+      <c r="I83">
+        <v>-0.05497654511936186</v>
+      </c>
+      <c r="J83">
+        <v>-0.009106469133879585</v>
+      </c>
+      <c r="K83">
+        <v>0.1032139005574943</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.001076519614723013</v>
+        <v>0.001783759899488748</v>
       </c>
       <c r="C84">
-        <v>-0.04680725175547979</v>
+        <v>0.04346902063471399</v>
       </c>
       <c r="D84">
-        <v>-0.01937726113359657</v>
+        <v>0.05682560139794172</v>
       </c>
       <c r="E84">
-        <v>-0.07548583913819822</v>
+        <v>-0.0294537781505725</v>
       </c>
       <c r="F84">
-        <v>-0.02922321442055899</v>
+        <v>0.09096352879964606</v>
       </c>
       <c r="G84">
-        <v>-0.143875266504391</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.04025868381078028</v>
+      </c>
+      <c r="H84">
+        <v>-0.07018199861110073</v>
+      </c>
+      <c r="I84">
+        <v>-0.1085338120474163</v>
+      </c>
+      <c r="J84">
+        <v>-0.06158025479234016</v>
+      </c>
+      <c r="K84">
+        <v>0.07993014711215544</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.0255224892571612</v>
+        <v>-0.02784600701887789</v>
       </c>
       <c r="C85">
-        <v>-0.1443580348836298</v>
+        <v>0.1230280706339249</v>
       </c>
       <c r="D85">
-        <v>-0.0798912375458638</v>
+        <v>0.07379923600823439</v>
       </c>
       <c r="E85">
-        <v>0.2105805751111861</v>
+        <v>-0.0001501517487623293</v>
       </c>
       <c r="F85">
-        <v>0.06879045700610163</v>
+        <v>-0.1626007281378357</v>
       </c>
       <c r="G85">
-        <v>-0.02075723051347368</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1640011729163869</v>
+      </c>
+      <c r="H85">
+        <v>0.04009067795347241</v>
+      </c>
+      <c r="I85">
+        <v>0.08186742167044782</v>
+      </c>
+      <c r="J85">
+        <v>-0.02358858911218038</v>
+      </c>
+      <c r="K85">
+        <v>0.1722919931151312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.01791772150664856</v>
+        <v>-0.01692683841304249</v>
       </c>
       <c r="C86">
-        <v>-0.06389390459438893</v>
+        <v>0.08063484713205749</v>
       </c>
       <c r="D86">
-        <v>0.04084121121176182</v>
+        <v>0.01886507162326308</v>
       </c>
       <c r="E86">
-        <v>-0.04932666800813878</v>
+        <v>-0.002461597849851701</v>
       </c>
       <c r="F86">
-        <v>-0.04535694762215695</v>
+        <v>0.08782242850211064</v>
       </c>
       <c r="G86">
-        <v>-0.02172152347977665</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.0783729878726025</v>
+      </c>
+      <c r="H86">
+        <v>-0.02328869112357492</v>
+      </c>
+      <c r="I86">
+        <v>0.1379920923342118</v>
+      </c>
+      <c r="J86">
+        <v>0.1495272114270815</v>
+      </c>
+      <c r="K86">
+        <v>-0.04330045770718807</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.05567766969399229</v>
+        <v>-0.02293444998956053</v>
       </c>
       <c r="C87">
-        <v>-0.1400852697514659</v>
+        <v>0.118285869068628</v>
       </c>
       <c r="D87">
-        <v>-0.01212503483618218</v>
+        <v>0.01317963751440507</v>
       </c>
       <c r="E87">
-        <v>-0.1024255882044504</v>
+        <v>-0.007984320551988874</v>
       </c>
       <c r="F87">
-        <v>0.009971830275772888</v>
+        <v>0.08092019193468183</v>
       </c>
       <c r="G87">
-        <v>-0.005986222338015758</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.001061402527363891</v>
+      </c>
+      <c r="H87">
+        <v>-0.03865628913635838</v>
+      </c>
+      <c r="I87">
+        <v>-0.1057392122280412</v>
+      </c>
+      <c r="J87">
+        <v>0.07104876997168921</v>
+      </c>
+      <c r="K87">
+        <v>0.07337180757287907</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.0047212530375866</v>
+        <v>-0.03548812154276509</v>
       </c>
       <c r="C88">
-        <v>-0.05158090002522639</v>
+        <v>0.0711574075690969</v>
       </c>
       <c r="D88">
-        <v>-0.05249847323964618</v>
+        <v>0.04266099667744617</v>
       </c>
       <c r="E88">
-        <v>0.04234280822559719</v>
+        <v>-0.01634128636541756</v>
       </c>
       <c r="F88">
-        <v>-0.03850606929300953</v>
+        <v>-0.016238324835224</v>
       </c>
       <c r="G88">
-        <v>0.01811558052562664</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02011601227350365</v>
+      </c>
+      <c r="H88">
+        <v>0.0008103076832671806</v>
+      </c>
+      <c r="I88">
+        <v>0.02759240292564037</v>
+      </c>
+      <c r="J88">
+        <v>-0.07172035839352522</v>
+      </c>
+      <c r="K88">
+        <v>0.09901923765715465</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.3933110509822508</v>
+        <v>-0.3939385136275631</v>
       </c>
       <c r="C89">
-        <v>0.08914953442400839</v>
+        <v>-0.1063564593576151</v>
       </c>
       <c r="D89">
-        <v>-0.1107615573042983</v>
+        <v>-0.02709399690112402</v>
       </c>
       <c r="E89">
-        <v>-0.0384850214081186</v>
+        <v>-0.02736318969129393</v>
       </c>
       <c r="F89">
-        <v>0.05852824035146169</v>
+        <v>0.06029941543908208</v>
       </c>
       <c r="G89">
-        <v>-0.07484221771419303</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.005371459888752875</v>
+      </c>
+      <c r="H89">
+        <v>0.00264646972349638</v>
+      </c>
+      <c r="I89">
+        <v>-0.7410060192780088</v>
+      </c>
+      <c r="J89">
+        <v>-0.05721058744945173</v>
+      </c>
+      <c r="K89">
+        <v>0.02840618178203001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3042749342857699</v>
+        <v>-0.3144730947095147</v>
       </c>
       <c r="C90">
-        <v>0.02074381903437487</v>
+        <v>-0.06180685688167875</v>
       </c>
       <c r="D90">
-        <v>-0.005540472264753953</v>
+        <v>-0.007340910043287322</v>
       </c>
       <c r="E90">
-        <v>-0.02839880531691601</v>
+        <v>0.02072596376828499</v>
       </c>
       <c r="F90">
-        <v>0.04682626580379391</v>
+        <v>0.02521917386947304</v>
       </c>
       <c r="G90">
-        <v>0.0285410690087087</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02279654005101905</v>
+      </c>
+      <c r="H90">
+        <v>-0.01675388047774658</v>
+      </c>
+      <c r="I90">
+        <v>0.07961711937750483</v>
+      </c>
+      <c r="J90">
+        <v>0.02210085730280454</v>
+      </c>
+      <c r="K90">
+        <v>0.006079651085708761</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02820926136771462</v>
+        <v>-0.05113807135527799</v>
       </c>
       <c r="C91">
-        <v>-0.1140450746650573</v>
+        <v>0.1017331767600785</v>
       </c>
       <c r="D91">
-        <v>-0.04280382559290587</v>
+        <v>0.04060839932763251</v>
       </c>
       <c r="E91">
-        <v>0.1282971300806957</v>
+        <v>0.03401281061765418</v>
       </c>
       <c r="F91">
-        <v>0.04190833523530652</v>
+        <v>-0.0761526563060182</v>
       </c>
       <c r="G91">
-        <v>-0.000101000696241213</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.09160259559621599</v>
+      </c>
+      <c r="H91">
+        <v>0.02255160654420433</v>
+      </c>
+      <c r="I91">
+        <v>0.01262205947554152</v>
+      </c>
+      <c r="J91">
+        <v>-0.0412871374676714</v>
+      </c>
+      <c r="K91">
+        <v>0.05280962871497359</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3814460413287445</v>
+        <v>-0.3550665765959753</v>
       </c>
       <c r="C92">
-        <v>0.1116808379513165</v>
+        <v>-0.1254166171458919</v>
       </c>
       <c r="D92">
-        <v>0.00816414012909095</v>
+        <v>-0.04636293483163306</v>
       </c>
       <c r="E92">
-        <v>-0.002876176790889267</v>
+        <v>-0.04578039894741909</v>
       </c>
       <c r="F92">
-        <v>-0.0945562863889217</v>
+        <v>0.05673840010434208</v>
       </c>
       <c r="G92">
-        <v>-0.04376483612993126</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.02323377204872644</v>
+      </c>
+      <c r="H92">
+        <v>-0.0775135205007601</v>
+      </c>
+      <c r="I92">
+        <v>0.1620207451343543</v>
+      </c>
+      <c r="J92">
+        <v>0.002870787120701495</v>
+      </c>
+      <c r="K92">
+        <v>-0.05048363598209892</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3057156710070698</v>
+        <v>-0.3105511219221052</v>
       </c>
       <c r="C93">
-        <v>0.07729531262655558</v>
+        <v>-0.1091907399268884</v>
       </c>
       <c r="D93">
-        <v>-0.03093261516423524</v>
+        <v>0.0006821818583775294</v>
       </c>
       <c r="E93">
-        <v>-0.02339678798363745</v>
+        <v>0.001994157085391654</v>
       </c>
       <c r="F93">
-        <v>0.03061658813852449</v>
+        <v>0.03228069372630472</v>
       </c>
       <c r="G93">
-        <v>-0.03741732814271862</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.05444604170022902</v>
+      </c>
+      <c r="H93">
+        <v>-0.03046221051291848</v>
+      </c>
+      <c r="I93">
+        <v>0.1094530504602858</v>
+      </c>
+      <c r="J93">
+        <v>0.01867347364254591</v>
+      </c>
+      <c r="K93">
+        <v>0.04094605773746258</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.06171450362524734</v>
+        <v>-0.07626257108280161</v>
       </c>
       <c r="C94">
-        <v>-0.2256018044735337</v>
+        <v>0.1826377673565353</v>
       </c>
       <c r="D94">
-        <v>-0.1485244195752049</v>
+        <v>0.09811896995892484</v>
       </c>
       <c r="E94">
-        <v>0.4314688452500012</v>
+        <v>0.001593921482541348</v>
       </c>
       <c r="F94">
-        <v>0.1726405574132908</v>
+        <v>-0.2405782372080389</v>
       </c>
       <c r="G94">
-        <v>-0.3009837425861086</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.4784454022055373</v>
+      </c>
+      <c r="H94">
+        <v>0.2204853912994296</v>
+      </c>
+      <c r="I94">
+        <v>-0.1350701432816832</v>
+      </c>
+      <c r="J94">
+        <v>-0.2806514375161179</v>
+      </c>
+      <c r="K94">
+        <v>-0.5230377348296866</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.03987982426000678</v>
+        <v>-0.03766234304497305</v>
       </c>
       <c r="C95">
-        <v>-0.08180312803962786</v>
+        <v>0.1219179776303715</v>
       </c>
       <c r="D95">
-        <v>-0.009708222731546099</v>
+        <v>0.04633091329515102</v>
       </c>
       <c r="E95">
-        <v>-0.0007434958871224153</v>
+        <v>-0.04127471310327045</v>
       </c>
       <c r="F95">
-        <v>-0.0747601307151206</v>
+        <v>-0.05784257693704273</v>
       </c>
       <c r="G95">
-        <v>0.1620465318244084</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.0959495456780378</v>
+      </c>
+      <c r="H95">
+        <v>-0.07708612550375607</v>
+      </c>
+      <c r="I95">
+        <v>-0.1364978201220123</v>
+      </c>
+      <c r="J95">
+        <v>-0.2303571940669046</v>
+      </c>
+      <c r="K95">
+        <v>0.2918523320112964</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.01060335748422146</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0123855073878967</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.01099003803513515</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>-0.03429805433966033</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>0.01133770353422964</v>
       </c>
       <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.03078635338715102</v>
+      </c>
+      <c r="H97">
+        <v>-0.03067428688945256</v>
+      </c>
+      <c r="I97">
+        <v>-0.02727675220917788</v>
+      </c>
+      <c r="J97">
+        <v>-0.004058908912197779</v>
+      </c>
+      <c r="K97">
+        <v>-0.02863926996559473</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.07494518757438665</v>
+        <v>-0.1310548542697897</v>
       </c>
       <c r="C98">
-        <v>-0.1490042977795645</v>
+        <v>0.1639227098823633</v>
       </c>
       <c r="D98">
-        <v>-0.08065709616423422</v>
+        <v>0.07837599017191219</v>
       </c>
       <c r="E98">
-        <v>-0.08769044301553459</v>
+        <v>0.03044012770258604</v>
       </c>
       <c r="F98">
-        <v>-0.09631758645288682</v>
+        <v>-0.1446736764261772</v>
       </c>
       <c r="G98">
-        <v>0.2400178930404359</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.3666507740703256</v>
+      </c>
+      <c r="H98">
+        <v>0.3109483053894976</v>
+      </c>
+      <c r="I98">
+        <v>0.09327523337308116</v>
+      </c>
+      <c r="J98">
+        <v>0.08773022932315758</v>
+      </c>
+      <c r="K98">
+        <v>-0.2037408411616357</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-0.007606373261284</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.02276738999610496</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.00155113587773928</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.002141479667869164</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>-0.03371854923329726</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.04261477085312763</v>
+      </c>
+      <c r="H99">
+        <v>-0.0633109916185411</v>
+      </c>
+      <c r="I99">
+        <v>-0.009212102104249283</v>
+      </c>
+      <c r="J99">
+        <v>-0.007545918076116553</v>
+      </c>
+      <c r="K99">
+        <v>-0.2107803766162894</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.01705082117397546</v>
+        <v>-0.01357777692707795</v>
       </c>
       <c r="C101">
-        <v>-0.05615973057791401</v>
+        <v>0.0736860946946644</v>
       </c>
       <c r="D101">
-        <v>-0.02387188094457783</v>
+        <v>0.04393475261659471</v>
       </c>
       <c r="E101">
-        <v>-0.07594699030653407</v>
+        <v>0.04656284744309375</v>
       </c>
       <c r="F101">
-        <v>-0.03059575519664474</v>
+        <v>0.02845466546919643</v>
       </c>
       <c r="G101">
-        <v>0.06911368400589323</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1166306382331964</v>
+      </c>
+      <c r="H101">
+        <v>-0.2965635303489519</v>
+      </c>
+      <c r="I101">
+        <v>-0.03823218321063423</v>
+      </c>
+      <c r="J101">
+        <v>-0.1945046956544736</v>
+      </c>
+      <c r="K101">
+        <v>-0.2623357763242507</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.009675446400246283</v>
+        <v>-0.003921774403587159</v>
       </c>
       <c r="C102">
-        <v>-0.06677999546278092</v>
+        <v>0.02862890562035273</v>
       </c>
       <c r="D102">
-        <v>-0.02375521654603347</v>
+        <v>0.009046991839133654</v>
       </c>
       <c r="E102">
-        <v>0.05783399761978488</v>
+        <v>0.01050130082268727</v>
       </c>
       <c r="F102">
-        <v>0.0333809064964062</v>
+        <v>-0.01828482193792055</v>
       </c>
       <c r="G102">
-        <v>0.003428615511484131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.03556879732930235</v>
+      </c>
+      <c r="H102">
+        <v>-0.004831023534444225</v>
+      </c>
+      <c r="I102">
+        <v>-0.01556936316338182</v>
+      </c>
+      <c r="J102">
+        <v>0.009568217873205373</v>
+      </c>
+      <c r="K102">
+        <v>-0.01870076758041347</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
